--- a/hasil/xls/sampel115052017.xlsx
+++ b/hasil/xls/sampel115052017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Skripsi Baru\Skripsi\hasil\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
@@ -12,13 +17,13 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,13 +561,49 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Waktu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> best_guess pada setiap hari</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -571,7 +612,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -731,6 +772,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -740,7 +787,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -900,6 +947,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -909,7 +962,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1069,6 +1122,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1078,7 +1137,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1238,6 +1297,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1247,7 +1312,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1407,6 +1472,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1416,7 +1487,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1576,6 +1647,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1585,7 +1662,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1745,8 +1822,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6B72-4651-A38A-DCD461C22A07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45333120"/>
         <c:axId val="45352064"/>
       </c:lineChart>
@@ -1755,23 +1847,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45352064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45333120"/>
         <c:crosses val="autoZero"/>
@@ -1781,8 +1880,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1793,13 +1895,49 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Waktu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> masing-masing model dalam seminggu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1808,10 +1946,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$F:$F</c:f>
+              <c:f>sampel115052017!$F$1:$F$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2832,6 +2970,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3636-490C-99C6-6AB8C1F5594D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2839,6 +2983,519 @@
           <c:tx>
             <c:v>optimistic</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>sampel115052017!$F$1:$F$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>sampel115052017!$D$1:$D$168</c:f>
@@ -3352,6 +4009,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3636-490C-99C6-6AB8C1F5594D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3359,6 +4022,519 @@
           <c:tx>
             <c:v>pessimistic</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>sampel115052017!$F$1:$F$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>sampel115052017!$E$1:$E$168</c:f>
@@ -3872,8 +5048,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3636-490C-99C6-6AB8C1F5594D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45375488"/>
         <c:axId val="45377408"/>
       </c:lineChart>
@@ -3882,23 +5073,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45377408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45377408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45375488"/>
         <c:crosses val="autoZero"/>
@@ -3908,8 +5106,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3920,13 +5121,44 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Senin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3935,7 +5167,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4095,6 +5327,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E657-4224-A20B-E610D45C9475}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4104,7 +5342,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4264,6 +5502,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E657-4224-A20B-E610D45C9475}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4273,7 +5517,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$1:$B$24</c:f>
+              <c:f>sampel115052017!$B$1:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4433,8 +5677,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E657-4224-A20B-E610D45C9475}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45439232"/>
         <c:axId val="45445120"/>
       </c:lineChart>
@@ -4443,23 +5702,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45445120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45439232"/>
         <c:crosses val="autoZero"/>
@@ -4469,8 +5735,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4481,13 +5750,44 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Selasa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4496,7 +5796,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$25:$B$48</c:f>
+              <c:f>sampel115052017!$B$25:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4656,6 +5956,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A07F-4336-9D2B-0A114DC3A117}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4665,7 +5971,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$25:$B$48</c:f>
+              <c:f>sampel115052017!$B$25:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4825,6 +6131,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A07F-4336-9D2B-0A114DC3A117}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4832,6 +6144,87 @@
           <c:tx>
             <c:v>pessimistic</c:v>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>sampel115052017!$B$25:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>sampel115052017!$E$25:$E$48</c:f>
@@ -4913,8 +6306,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A07F-4336-9D2B-0A114DC3A117}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45470080"/>
         <c:axId val="45471616"/>
       </c:lineChart>
@@ -4923,23 +6331,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45471616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45471616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45470080"/>
         <c:crosses val="autoZero"/>
@@ -4949,8 +6364,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4961,13 +6379,44 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rabu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4976,7 +6425,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$49:$B$72</c:f>
+              <c:f>sampel115052017!$B$49:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5136,6 +6585,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A0-4DBC-BD26-802F1C626AD8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5145,7 +6600,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$49:$B$72</c:f>
+              <c:f>sampel115052017!$B$49:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5305,6 +6760,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A0-4DBC-BD26-802F1C626AD8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5314,7 +6775,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$49:$B$72</c:f>
+              <c:f>sampel115052017!$B$49:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5474,8 +6935,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A0-4DBC-BD26-802F1C626AD8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="122514432"/>
         <c:axId val="122524416"/>
       </c:lineChart>
@@ -5484,23 +6960,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="122524416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="122524416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="122514432"/>
         <c:crosses val="autoZero"/>
@@ -5510,8 +6993,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5522,13 +7008,44 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kamis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5537,7 +7054,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$73:$B$96</c:f>
+              <c:f>sampel115052017!$B$73:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5697,6 +7214,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3271-474C-985A-E05134D2A1DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5706,7 +7229,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$73:$B$96</c:f>
+              <c:f>sampel115052017!$B$73:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5866,6 +7389,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3271-474C-985A-E05134D2A1DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5875,7 +7404,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$73:$B$96</c:f>
+              <c:f>sampel115052017!$B$73:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6035,8 +7564,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3271-474C-985A-E05134D2A1DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="122550144"/>
         <c:axId val="122551680"/>
       </c:lineChart>
@@ -6045,23 +7589,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="122551680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="122551680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="122550144"/>
         <c:crosses val="autoZero"/>
@@ -6071,8 +7622,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6083,13 +7637,44 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jumat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6098,7 +7683,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$97:$B$120</c:f>
+              <c:f>sampel115052017!$B$97:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6258,6 +7843,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5889-4D47-810B-DC6CBF812A80}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6267,7 +7858,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$97:$B$120</c:f>
+              <c:f>sampel115052017!$B$97:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6427,6 +8018,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5889-4D47-810B-DC6CBF812A80}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6436,7 +8033,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$97:$B$120</c:f>
+              <c:f>sampel115052017!$B$97:$B$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6596,8 +8193,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5889-4D47-810B-DC6CBF812A80}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45900544"/>
         <c:axId val="45902080"/>
       </c:lineChart>
@@ -6606,23 +8218,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45902080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45900544"/>
         <c:crosses val="autoZero"/>
@@ -6632,8 +8251,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6644,13 +8266,44 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sabtu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6659,7 +8312,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$121:$B$144</c:f>
+              <c:f>sampel115052017!$B$121:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6819,6 +8472,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F495-4D70-88D0-365737F35304}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6828,7 +8487,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$121:$B$144</c:f>
+              <c:f>sampel115052017!$B$121:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6988,6 +8647,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F495-4D70-88D0-365737F35304}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6997,7 +8662,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$121:$B$144</c:f>
+              <c:f>sampel115052017!$B$121:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7157,8 +8822,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F495-4D70-88D0-365737F35304}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45936000"/>
         <c:axId val="45941888"/>
       </c:lineChart>
@@ -7167,23 +8847,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45941888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45941888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45936000"/>
         <c:crosses val="autoZero"/>
@@ -7193,8 +8880,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7205,13 +8895,44 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7220,7 +8941,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$145:$B$168</c:f>
+              <c:f>sampel115052017!$B$145:$B$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7380,6 +9101,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-999B-4511-9EFF-94CE2EB8DDE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7389,7 +9116,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$145:$B$168</c:f>
+              <c:f>sampel115052017!$B$145:$B$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7549,6 +9276,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-999B-4511-9EFF-94CE2EB8DDE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7558,7 +9291,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>[1]sampel108052017!$B$145:$B$168</c:f>
+              <c:f>sampel115052017!$B$145:$B$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7718,8 +9451,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-999B-4511-9EFF-94CE2EB8DDE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="45971712"/>
         <c:axId val="45981696"/>
       </c:lineChart>
@@ -7728,23 +9476,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45981696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="45981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45971712"/>
         <c:crosses val="autoZero"/>
@@ -7754,8 +9509,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8041,7 +9799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sampel108052017"/>
@@ -8052,15 +9810,6 @@
           <cell r="B1">
             <v>0</v>
           </cell>
-          <cell r="C1">
-            <v>33</v>
-          </cell>
-          <cell r="D1">
-            <v>28</v>
-          </cell>
-          <cell r="E1">
-            <v>42</v>
-          </cell>
           <cell r="F1">
             <v>1</v>
           </cell>
@@ -8069,15 +9818,6 @@
           <cell r="B2">
             <v>1</v>
           </cell>
-          <cell r="C2">
-            <v>32</v>
-          </cell>
-          <cell r="D2">
-            <v>29</v>
-          </cell>
-          <cell r="E2">
-            <v>40</v>
-          </cell>
           <cell r="F2">
             <v>2</v>
           </cell>
@@ -8086,15 +9826,6 @@
           <cell r="B3">
             <v>2</v>
           </cell>
-          <cell r="C3">
-            <v>32</v>
-          </cell>
-          <cell r="D3">
-            <v>29</v>
-          </cell>
-          <cell r="E3">
-            <v>37</v>
-          </cell>
           <cell r="F3">
             <v>3</v>
           </cell>
@@ -8103,15 +9834,6 @@
           <cell r="B4">
             <v>3</v>
           </cell>
-          <cell r="C4">
-            <v>31</v>
-          </cell>
-          <cell r="D4">
-            <v>28</v>
-          </cell>
-          <cell r="E4">
-            <v>36</v>
-          </cell>
           <cell r="F4">
             <v>4</v>
           </cell>
@@ -8120,15 +9842,6 @@
           <cell r="B5">
             <v>4</v>
           </cell>
-          <cell r="C5">
-            <v>31</v>
-          </cell>
-          <cell r="D5">
-            <v>27</v>
-          </cell>
-          <cell r="E5">
-            <v>36</v>
-          </cell>
           <cell r="F5">
             <v>5</v>
           </cell>
@@ -8137,15 +9850,6 @@
           <cell r="B6">
             <v>5</v>
           </cell>
-          <cell r="C6">
-            <v>32</v>
-          </cell>
-          <cell r="D6">
-            <v>28</v>
-          </cell>
-          <cell r="E6">
-            <v>38</v>
-          </cell>
           <cell r="F6">
             <v>6</v>
           </cell>
@@ -8154,15 +9858,6 @@
           <cell r="B7">
             <v>6</v>
           </cell>
-          <cell r="C7">
-            <v>36</v>
-          </cell>
-          <cell r="D7">
-            <v>30</v>
-          </cell>
-          <cell r="E7">
-            <v>47</v>
-          </cell>
           <cell r="F7">
             <v>7</v>
           </cell>
@@ -8171,15 +9866,6 @@
           <cell r="B8">
             <v>7</v>
           </cell>
-          <cell r="C8">
-            <v>39</v>
-          </cell>
-          <cell r="D8">
-            <v>31</v>
-          </cell>
-          <cell r="E8">
-            <v>55</v>
-          </cell>
           <cell r="F8">
             <v>8</v>
           </cell>
@@ -8188,15 +9874,6 @@
           <cell r="B9">
             <v>8</v>
           </cell>
-          <cell r="C9">
-            <v>39</v>
-          </cell>
-          <cell r="D9">
-            <v>32</v>
-          </cell>
-          <cell r="E9">
-            <v>54</v>
-          </cell>
           <cell r="F9">
             <v>9</v>
           </cell>
@@ -8205,15 +9882,6 @@
           <cell r="B10">
             <v>9</v>
           </cell>
-          <cell r="C10">
-            <v>40</v>
-          </cell>
-          <cell r="D10">
-            <v>33</v>
-          </cell>
-          <cell r="E10">
-            <v>57</v>
-          </cell>
           <cell r="F10">
             <v>10</v>
           </cell>
@@ -8222,15 +9890,6 @@
           <cell r="B11">
             <v>10</v>
           </cell>
-          <cell r="C11">
-            <v>43</v>
-          </cell>
-          <cell r="D11">
-            <v>35</v>
-          </cell>
-          <cell r="E11">
-            <v>63</v>
-          </cell>
           <cell r="F11">
             <v>11</v>
           </cell>
@@ -8239,15 +9898,6 @@
           <cell r="B12">
             <v>11</v>
           </cell>
-          <cell r="C12">
-            <v>44</v>
-          </cell>
-          <cell r="D12">
-            <v>36</v>
-          </cell>
-          <cell r="E12">
-            <v>66</v>
-          </cell>
           <cell r="F12">
             <v>12</v>
           </cell>
@@ -8256,15 +9906,6 @@
           <cell r="B13">
             <v>12</v>
           </cell>
-          <cell r="C13">
-            <v>44</v>
-          </cell>
-          <cell r="D13">
-            <v>35</v>
-          </cell>
-          <cell r="E13">
-            <v>64</v>
-          </cell>
           <cell r="F13">
             <v>13</v>
           </cell>
@@ -8273,15 +9914,6 @@
           <cell r="B14">
             <v>13</v>
           </cell>
-          <cell r="C14">
-            <v>45</v>
-          </cell>
-          <cell r="D14">
-            <v>36</v>
-          </cell>
-          <cell r="E14">
-            <v>69</v>
-          </cell>
           <cell r="F14">
             <v>14</v>
           </cell>
@@ -8290,15 +9922,6 @@
           <cell r="B15">
             <v>14</v>
           </cell>
-          <cell r="C15">
-            <v>48</v>
-          </cell>
-          <cell r="D15">
-            <v>37</v>
-          </cell>
-          <cell r="E15">
-            <v>72</v>
-          </cell>
           <cell r="F15">
             <v>15</v>
           </cell>
@@ -8307,15 +9930,6 @@
           <cell r="B16">
             <v>15</v>
           </cell>
-          <cell r="C16">
-            <v>49</v>
-          </cell>
-          <cell r="D16">
-            <v>38</v>
-          </cell>
-          <cell r="E16">
-            <v>73</v>
-          </cell>
           <cell r="F16">
             <v>16</v>
           </cell>
@@ -8324,15 +9938,6 @@
           <cell r="B17">
             <v>16</v>
           </cell>
-          <cell r="C17">
-            <v>49</v>
-          </cell>
-          <cell r="D17">
-            <v>39</v>
-          </cell>
-          <cell r="E17">
-            <v>77</v>
-          </cell>
           <cell r="F17">
             <v>17</v>
           </cell>
@@ -8341,15 +9946,6 @@
           <cell r="B18">
             <v>17</v>
           </cell>
-          <cell r="C18">
-            <v>53</v>
-          </cell>
-          <cell r="D18">
-            <v>42</v>
-          </cell>
-          <cell r="E18">
-            <v>78</v>
-          </cell>
           <cell r="F18">
             <v>18</v>
           </cell>
@@ -8358,15 +9954,6 @@
           <cell r="B19">
             <v>18</v>
           </cell>
-          <cell r="C19">
-            <v>46</v>
-          </cell>
-          <cell r="D19">
-            <v>37</v>
-          </cell>
-          <cell r="E19">
-            <v>67</v>
-          </cell>
           <cell r="F19">
             <v>19</v>
           </cell>
@@ -8375,15 +9962,6 @@
           <cell r="B20">
             <v>19</v>
           </cell>
-          <cell r="C20">
-            <v>43</v>
-          </cell>
-          <cell r="D20">
-            <v>35</v>
-          </cell>
-          <cell r="E20">
-            <v>61</v>
-          </cell>
           <cell r="F20">
             <v>20</v>
           </cell>
@@ -8392,15 +9970,6 @@
           <cell r="B21">
             <v>20</v>
           </cell>
-          <cell r="C21">
-            <v>41</v>
-          </cell>
-          <cell r="D21">
-            <v>34</v>
-          </cell>
-          <cell r="E21">
-            <v>57</v>
-          </cell>
           <cell r="F21">
             <v>21</v>
           </cell>
@@ -8409,15 +9978,6 @@
           <cell r="B22">
             <v>21</v>
           </cell>
-          <cell r="C22">
-            <v>40</v>
-          </cell>
-          <cell r="D22">
-            <v>33</v>
-          </cell>
-          <cell r="E22">
-            <v>54</v>
-          </cell>
           <cell r="F22">
             <v>22</v>
           </cell>
@@ -8426,15 +9986,6 @@
           <cell r="B23">
             <v>22</v>
           </cell>
-          <cell r="C23">
-            <v>38</v>
-          </cell>
-          <cell r="D23">
-            <v>31</v>
-          </cell>
-          <cell r="E23">
-            <v>49</v>
-          </cell>
           <cell r="F23">
             <v>23</v>
           </cell>
@@ -8443,15 +9994,6 @@
           <cell r="B24">
             <v>23</v>
           </cell>
-          <cell r="C24">
-            <v>35</v>
-          </cell>
-          <cell r="D24">
-            <v>30</v>
-          </cell>
-          <cell r="E24">
-            <v>45</v>
-          </cell>
           <cell r="F24">
             <v>24</v>
           </cell>
@@ -8460,15 +10002,6 @@
           <cell r="B25">
             <v>0</v>
           </cell>
-          <cell r="C25">
-            <v>34</v>
-          </cell>
-          <cell r="D25">
-            <v>29</v>
-          </cell>
-          <cell r="E25">
-            <v>42</v>
-          </cell>
           <cell r="F25">
             <v>2</v>
           </cell>
@@ -8477,15 +10010,6 @@
           <cell r="B26">
             <v>1</v>
           </cell>
-          <cell r="C26">
-            <v>32</v>
-          </cell>
-          <cell r="D26">
-            <v>28</v>
-          </cell>
-          <cell r="E26">
-            <v>40</v>
-          </cell>
           <cell r="F26">
             <v>3</v>
           </cell>
@@ -8494,15 +10018,6 @@
           <cell r="B27">
             <v>2</v>
           </cell>
-          <cell r="C27">
-            <v>31</v>
-          </cell>
-          <cell r="D27">
-            <v>29</v>
-          </cell>
-          <cell r="E27">
-            <v>37</v>
-          </cell>
           <cell r="F27">
             <v>4</v>
           </cell>
@@ -8511,15 +10026,6 @@
           <cell r="B28">
             <v>3</v>
           </cell>
-          <cell r="C28">
-            <v>31</v>
-          </cell>
-          <cell r="D28">
-            <v>28</v>
-          </cell>
-          <cell r="E28">
-            <v>36</v>
-          </cell>
           <cell r="F28">
             <v>5</v>
           </cell>
@@ -8528,15 +10034,6 @@
           <cell r="B29">
             <v>4</v>
           </cell>
-          <cell r="C29">
-            <v>31</v>
-          </cell>
-          <cell r="D29">
-            <v>28</v>
-          </cell>
-          <cell r="E29">
-            <v>35</v>
-          </cell>
           <cell r="F29">
             <v>6</v>
           </cell>
@@ -8545,15 +10042,6 @@
           <cell r="B30">
             <v>5</v>
           </cell>
-          <cell r="C30">
-            <v>32</v>
-          </cell>
-          <cell r="D30">
-            <v>28</v>
-          </cell>
-          <cell r="E30">
-            <v>37</v>
-          </cell>
           <cell r="F30">
             <v>7</v>
           </cell>
@@ -8562,15 +10050,6 @@
           <cell r="B31">
             <v>6</v>
           </cell>
-          <cell r="C31">
-            <v>36</v>
-          </cell>
-          <cell r="D31">
-            <v>30</v>
-          </cell>
-          <cell r="E31">
-            <v>47</v>
-          </cell>
           <cell r="F31">
             <v>8</v>
           </cell>
@@ -8579,15 +10058,6 @@
           <cell r="B32">
             <v>7</v>
           </cell>
-          <cell r="C32">
-            <v>39</v>
-          </cell>
-          <cell r="D32">
-            <v>32</v>
-          </cell>
-          <cell r="E32">
-            <v>55</v>
-          </cell>
           <cell r="F32">
             <v>9</v>
           </cell>
@@ -8596,15 +10066,6 @@
           <cell r="B33">
             <v>8</v>
           </cell>
-          <cell r="C33">
-            <v>39</v>
-          </cell>
-          <cell r="D33">
-            <v>32</v>
-          </cell>
-          <cell r="E33">
-            <v>55</v>
-          </cell>
           <cell r="F33">
             <v>10</v>
           </cell>
@@ -8613,15 +10074,6 @@
           <cell r="B34">
             <v>9</v>
           </cell>
-          <cell r="C34">
-            <v>40</v>
-          </cell>
-          <cell r="D34">
-            <v>33</v>
-          </cell>
-          <cell r="E34">
-            <v>56</v>
-          </cell>
           <cell r="F34">
             <v>11</v>
           </cell>
@@ -8630,15 +10082,6 @@
           <cell r="B35">
             <v>10</v>
           </cell>
-          <cell r="C35">
-            <v>43</v>
-          </cell>
-          <cell r="D35">
-            <v>34</v>
-          </cell>
-          <cell r="E35">
-            <v>62</v>
-          </cell>
           <cell r="F35">
             <v>12</v>
           </cell>
@@ -8647,15 +10090,6 @@
           <cell r="B36">
             <v>11</v>
           </cell>
-          <cell r="C36">
-            <v>44</v>
-          </cell>
-          <cell r="D36">
-            <v>35</v>
-          </cell>
-          <cell r="E36">
-            <v>63</v>
-          </cell>
           <cell r="F36">
             <v>13</v>
           </cell>
@@ -8664,15 +10098,6 @@
           <cell r="B37">
             <v>12</v>
           </cell>
-          <cell r="C37">
-            <v>45</v>
-          </cell>
-          <cell r="D37">
-            <v>36</v>
-          </cell>
-          <cell r="E37">
-            <v>65</v>
-          </cell>
           <cell r="F37">
             <v>14</v>
           </cell>
@@ -8681,15 +10106,6 @@
           <cell r="B38">
             <v>13</v>
           </cell>
-          <cell r="C38">
-            <v>46</v>
-          </cell>
-          <cell r="D38">
-            <v>37</v>
-          </cell>
-          <cell r="E38">
-            <v>71</v>
-          </cell>
           <cell r="F38">
             <v>15</v>
           </cell>
@@ -8698,15 +10114,6 @@
           <cell r="B39">
             <v>14</v>
           </cell>
-          <cell r="C39">
-            <v>48</v>
-          </cell>
-          <cell r="D39">
-            <v>38</v>
-          </cell>
-          <cell r="E39">
-            <v>71</v>
-          </cell>
           <cell r="F39">
             <v>16</v>
           </cell>
@@ -8715,15 +10122,6 @@
           <cell r="B40">
             <v>15</v>
           </cell>
-          <cell r="C40">
-            <v>48</v>
-          </cell>
-          <cell r="D40">
-            <v>38</v>
-          </cell>
-          <cell r="E40">
-            <v>71</v>
-          </cell>
           <cell r="F40">
             <v>17</v>
           </cell>
@@ -8732,15 +10130,6 @@
           <cell r="B41">
             <v>16</v>
           </cell>
-          <cell r="C41">
-            <v>50</v>
-          </cell>
-          <cell r="D41">
-            <v>39</v>
-          </cell>
-          <cell r="E41">
-            <v>76</v>
-          </cell>
           <cell r="F41">
             <v>18</v>
           </cell>
@@ -8749,15 +10138,6 @@
           <cell r="B42">
             <v>17</v>
           </cell>
-          <cell r="C42">
-            <v>54</v>
-          </cell>
-          <cell r="D42">
-            <v>42</v>
-          </cell>
-          <cell r="E42">
-            <v>79</v>
-          </cell>
           <cell r="F42">
             <v>19</v>
           </cell>
@@ -8766,15 +10146,6 @@
           <cell r="B43">
             <v>18</v>
           </cell>
-          <cell r="C43">
-            <v>46</v>
-          </cell>
-          <cell r="D43">
-            <v>38</v>
-          </cell>
-          <cell r="E43">
-            <v>67</v>
-          </cell>
           <cell r="F43">
             <v>20</v>
           </cell>
@@ -8783,15 +10154,6 @@
           <cell r="B44">
             <v>19</v>
           </cell>
-          <cell r="C44">
-            <v>44</v>
-          </cell>
-          <cell r="D44">
-            <v>36</v>
-          </cell>
-          <cell r="E44">
-            <v>63</v>
-          </cell>
           <cell r="F44">
             <v>21</v>
           </cell>
@@ -8800,15 +10162,6 @@
           <cell r="B45">
             <v>20</v>
           </cell>
-          <cell r="C45">
-            <v>42</v>
-          </cell>
-          <cell r="D45">
-            <v>35</v>
-          </cell>
-          <cell r="E45">
-            <v>59</v>
-          </cell>
           <cell r="F45">
             <v>22</v>
           </cell>
@@ -8817,15 +10170,6 @@
           <cell r="B46">
             <v>21</v>
           </cell>
-          <cell r="C46">
-            <v>41</v>
-          </cell>
-          <cell r="D46">
-            <v>34</v>
-          </cell>
-          <cell r="E46">
-            <v>55</v>
-          </cell>
           <cell r="F46">
             <v>23</v>
           </cell>
@@ -8834,15 +10178,6 @@
           <cell r="B47">
             <v>22</v>
           </cell>
-          <cell r="C47">
-            <v>38</v>
-          </cell>
-          <cell r="D47">
-            <v>32</v>
-          </cell>
-          <cell r="E47">
-            <v>50</v>
-          </cell>
           <cell r="F47">
             <v>24</v>
           </cell>
@@ -8851,15 +10186,6 @@
           <cell r="B48">
             <v>23</v>
           </cell>
-          <cell r="C48">
-            <v>35</v>
-          </cell>
-          <cell r="D48">
-            <v>30</v>
-          </cell>
-          <cell r="E48">
-            <v>45</v>
-          </cell>
           <cell r="F48">
             <v>25</v>
           </cell>
@@ -8868,15 +10194,6 @@
           <cell r="B49">
             <v>0</v>
           </cell>
-          <cell r="C49">
-            <v>34</v>
-          </cell>
-          <cell r="D49">
-            <v>29</v>
-          </cell>
-          <cell r="E49">
-            <v>42</v>
-          </cell>
           <cell r="F49">
             <v>3</v>
           </cell>
@@ -8885,15 +10202,6 @@
           <cell r="B50">
             <v>1</v>
           </cell>
-          <cell r="C50">
-            <v>33</v>
-          </cell>
-          <cell r="D50">
-            <v>29</v>
-          </cell>
-          <cell r="E50">
-            <v>40</v>
-          </cell>
           <cell r="F50">
             <v>4</v>
           </cell>
@@ -8902,15 +10210,6 @@
           <cell r="B51">
             <v>2</v>
           </cell>
-          <cell r="C51">
-            <v>32</v>
-          </cell>
-          <cell r="D51">
-            <v>29</v>
-          </cell>
-          <cell r="E51">
-            <v>37</v>
-          </cell>
           <cell r="F51">
             <v>5</v>
           </cell>
@@ -8919,15 +10218,6 @@
           <cell r="B52">
             <v>3</v>
           </cell>
-          <cell r="C52">
-            <v>31</v>
-          </cell>
-          <cell r="D52">
-            <v>28</v>
-          </cell>
-          <cell r="E52">
-            <v>36</v>
-          </cell>
           <cell r="F52">
             <v>6</v>
           </cell>
@@ -8936,15 +10226,6 @@
           <cell r="B53">
             <v>4</v>
           </cell>
-          <cell r="C53">
-            <v>30</v>
-          </cell>
-          <cell r="D53">
-            <v>28</v>
-          </cell>
-          <cell r="E53">
-            <v>34</v>
-          </cell>
           <cell r="F53">
             <v>7</v>
           </cell>
@@ -8953,15 +10234,6 @@
           <cell r="B54">
             <v>5</v>
           </cell>
-          <cell r="C54">
-            <v>33</v>
-          </cell>
-          <cell r="D54">
-            <v>29</v>
-          </cell>
-          <cell r="E54">
-            <v>38</v>
-          </cell>
           <cell r="F54">
             <v>8</v>
           </cell>
@@ -8970,15 +10242,6 @@
           <cell r="B55">
             <v>6</v>
           </cell>
-          <cell r="C55">
-            <v>36</v>
-          </cell>
-          <cell r="D55">
-            <v>30</v>
-          </cell>
-          <cell r="E55">
-            <v>49</v>
-          </cell>
           <cell r="F55">
             <v>9</v>
           </cell>
@@ -8987,15 +10250,6 @@
           <cell r="B56">
             <v>7</v>
           </cell>
-          <cell r="C56">
-            <v>39</v>
-          </cell>
-          <cell r="D56">
-            <v>32</v>
-          </cell>
-          <cell r="E56">
-            <v>56</v>
-          </cell>
           <cell r="F56">
             <v>10</v>
           </cell>
@@ -9004,15 +10258,6 @@
           <cell r="B57">
             <v>8</v>
           </cell>
-          <cell r="C57">
-            <v>40</v>
-          </cell>
-          <cell r="D57">
-            <v>32</v>
-          </cell>
-          <cell r="E57">
-            <v>56</v>
-          </cell>
           <cell r="F57">
             <v>11</v>
           </cell>
@@ -9021,15 +10266,6 @@
           <cell r="B58">
             <v>9</v>
           </cell>
-          <cell r="C58">
-            <v>41</v>
-          </cell>
-          <cell r="D58">
-            <v>33</v>
-          </cell>
-          <cell r="E58">
-            <v>58</v>
-          </cell>
           <cell r="F58">
             <v>12</v>
           </cell>
@@ -9038,15 +10274,6 @@
           <cell r="B59">
             <v>10</v>
           </cell>
-          <cell r="C59">
-            <v>44</v>
-          </cell>
-          <cell r="D59">
-            <v>35</v>
-          </cell>
-          <cell r="E59">
-            <v>63</v>
-          </cell>
           <cell r="F59">
             <v>13</v>
           </cell>
@@ -9055,15 +10282,6 @@
           <cell r="B60">
             <v>11</v>
           </cell>
-          <cell r="C60">
-            <v>44</v>
-          </cell>
-          <cell r="D60">
-            <v>35</v>
-          </cell>
-          <cell r="E60">
-            <v>65</v>
-          </cell>
           <cell r="F60">
             <v>14</v>
           </cell>
@@ -9072,15 +10290,6 @@
           <cell r="B61">
             <v>12</v>
           </cell>
-          <cell r="C61">
-            <v>44</v>
-          </cell>
-          <cell r="D61">
-            <v>36</v>
-          </cell>
-          <cell r="E61">
-            <v>64</v>
-          </cell>
           <cell r="F61">
             <v>15</v>
           </cell>
@@ -9089,15 +10298,6 @@
           <cell r="B62">
             <v>13</v>
           </cell>
-          <cell r="C62">
-            <v>47</v>
-          </cell>
-          <cell r="D62">
-            <v>37</v>
-          </cell>
-          <cell r="E62">
-            <v>70</v>
-          </cell>
           <cell r="F62">
             <v>16</v>
           </cell>
@@ -9106,15 +10306,6 @@
           <cell r="B63">
             <v>14</v>
           </cell>
-          <cell r="C63">
-            <v>48</v>
-          </cell>
-          <cell r="D63">
-            <v>38</v>
-          </cell>
-          <cell r="E63">
-            <v>73</v>
-          </cell>
           <cell r="F63">
             <v>17</v>
           </cell>
@@ -9123,15 +10314,6 @@
           <cell r="B64">
             <v>15</v>
           </cell>
-          <cell r="C64">
-            <v>50</v>
-          </cell>
-          <cell r="D64">
-            <v>39</v>
-          </cell>
-          <cell r="E64">
-            <v>73</v>
-          </cell>
           <cell r="F64">
             <v>18</v>
           </cell>
@@ -9140,15 +10322,6 @@
           <cell r="B65">
             <v>16</v>
           </cell>
-          <cell r="C65">
-            <v>50</v>
-          </cell>
-          <cell r="D65">
-            <v>40</v>
-          </cell>
-          <cell r="E65">
-            <v>79</v>
-          </cell>
           <cell r="F65">
             <v>19</v>
           </cell>
@@ -9157,15 +10330,6 @@
           <cell r="B66">
             <v>17</v>
           </cell>
-          <cell r="C66">
-            <v>54</v>
-          </cell>
-          <cell r="D66">
-            <v>43</v>
-          </cell>
-          <cell r="E66">
-            <v>82</v>
-          </cell>
           <cell r="F66">
             <v>20</v>
           </cell>
@@ -9174,15 +10338,6 @@
           <cell r="B67">
             <v>18</v>
           </cell>
-          <cell r="C67">
-            <v>48</v>
-          </cell>
-          <cell r="D67">
-            <v>39</v>
-          </cell>
-          <cell r="E67">
-            <v>69</v>
-          </cell>
           <cell r="F67">
             <v>21</v>
           </cell>
@@ -9191,15 +10346,6 @@
           <cell r="B68">
             <v>19</v>
           </cell>
-          <cell r="C68">
-            <v>44</v>
-          </cell>
-          <cell r="D68">
-            <v>36</v>
-          </cell>
-          <cell r="E68">
-            <v>63</v>
-          </cell>
           <cell r="F68">
             <v>22</v>
           </cell>
@@ -9208,15 +10354,6 @@
           <cell r="B69">
             <v>20</v>
           </cell>
-          <cell r="C69">
-            <v>43</v>
-          </cell>
-          <cell r="D69">
-            <v>35</v>
-          </cell>
-          <cell r="E69">
-            <v>59</v>
-          </cell>
           <cell r="F69">
             <v>23</v>
           </cell>
@@ -9225,15 +10362,6 @@
           <cell r="B70">
             <v>21</v>
           </cell>
-          <cell r="C70">
-            <v>41</v>
-          </cell>
-          <cell r="D70">
-            <v>34</v>
-          </cell>
-          <cell r="E70">
-            <v>59</v>
-          </cell>
           <cell r="F70">
             <v>24</v>
           </cell>
@@ -9242,15 +10370,6 @@
           <cell r="B71">
             <v>22</v>
           </cell>
-          <cell r="C71">
-            <v>38</v>
-          </cell>
-          <cell r="D71">
-            <v>32</v>
-          </cell>
-          <cell r="E71">
-            <v>51</v>
-          </cell>
           <cell r="F71">
             <v>25</v>
           </cell>
@@ -9259,15 +10378,6 @@
           <cell r="B72">
             <v>23</v>
           </cell>
-          <cell r="C72">
-            <v>35</v>
-          </cell>
-          <cell r="D72">
-            <v>30</v>
-          </cell>
-          <cell r="E72">
-            <v>46</v>
-          </cell>
           <cell r="F72">
             <v>26</v>
           </cell>
@@ -9276,15 +10386,6 @@
           <cell r="B73">
             <v>0</v>
           </cell>
-          <cell r="C73">
-            <v>34</v>
-          </cell>
-          <cell r="D73">
-            <v>29</v>
-          </cell>
-          <cell r="E73">
-            <v>42</v>
-          </cell>
           <cell r="F73">
             <v>4</v>
           </cell>
@@ -9293,15 +10394,6 @@
           <cell r="B74">
             <v>1</v>
           </cell>
-          <cell r="C74">
-            <v>33</v>
-          </cell>
-          <cell r="D74">
-            <v>29</v>
-          </cell>
-          <cell r="E74">
-            <v>41</v>
-          </cell>
           <cell r="F74">
             <v>5</v>
           </cell>
@@ -9310,15 +10402,6 @@
           <cell r="B75">
             <v>2</v>
           </cell>
-          <cell r="C75">
-            <v>32</v>
-          </cell>
-          <cell r="D75">
-            <v>28</v>
-          </cell>
-          <cell r="E75">
-            <v>37</v>
-          </cell>
           <cell r="F75">
             <v>6</v>
           </cell>
@@ -9327,15 +10410,6 @@
           <cell r="B76">
             <v>3</v>
           </cell>
-          <cell r="C76">
-            <v>32</v>
-          </cell>
-          <cell r="D76">
-            <v>29</v>
-          </cell>
-          <cell r="E76">
-            <v>37</v>
-          </cell>
           <cell r="F76">
             <v>7</v>
           </cell>
@@ -9344,15 +10418,6 @@
           <cell r="B77">
             <v>4</v>
           </cell>
-          <cell r="C77">
-            <v>31</v>
-          </cell>
-          <cell r="D77">
-            <v>28</v>
-          </cell>
-          <cell r="E77">
-            <v>36</v>
-          </cell>
           <cell r="F77">
             <v>8</v>
           </cell>
@@ -9361,15 +10426,6 @@
           <cell r="B78">
             <v>5</v>
           </cell>
-          <cell r="C78">
-            <v>33</v>
-          </cell>
-          <cell r="D78">
-            <v>29</v>
-          </cell>
-          <cell r="E78">
-            <v>38</v>
-          </cell>
           <cell r="F78">
             <v>9</v>
           </cell>
@@ -9378,15 +10434,6 @@
           <cell r="B79">
             <v>6</v>
           </cell>
-          <cell r="C79">
-            <v>37</v>
-          </cell>
-          <cell r="D79">
-            <v>30</v>
-          </cell>
-          <cell r="E79">
-            <v>48</v>
-          </cell>
           <cell r="F79">
             <v>10</v>
           </cell>
@@ -9395,15 +10442,6 @@
           <cell r="B80">
             <v>7</v>
           </cell>
-          <cell r="C80">
-            <v>39</v>
-          </cell>
-          <cell r="D80">
-            <v>32</v>
-          </cell>
-          <cell r="E80">
-            <v>56</v>
-          </cell>
           <cell r="F80">
             <v>11</v>
           </cell>
@@ -9412,15 +10450,6 @@
           <cell r="B81">
             <v>8</v>
           </cell>
-          <cell r="C81">
-            <v>40</v>
-          </cell>
-          <cell r="D81">
-            <v>33</v>
-          </cell>
-          <cell r="E81">
-            <v>55</v>
-          </cell>
           <cell r="F81">
             <v>12</v>
           </cell>
@@ -9429,15 +10458,6 @@
           <cell r="B82">
             <v>9</v>
           </cell>
-          <cell r="C82">
-            <v>41</v>
-          </cell>
-          <cell r="D82">
-            <v>33</v>
-          </cell>
-          <cell r="E82">
-            <v>58</v>
-          </cell>
           <cell r="F82">
             <v>13</v>
           </cell>
@@ -9446,15 +10466,6 @@
           <cell r="B83">
             <v>10</v>
           </cell>
-          <cell r="C83">
-            <v>44</v>
-          </cell>
-          <cell r="D83">
-            <v>35</v>
-          </cell>
-          <cell r="E83">
-            <v>63</v>
-          </cell>
           <cell r="F83">
             <v>14</v>
           </cell>
@@ -9463,15 +10474,6 @@
           <cell r="B84">
             <v>11</v>
           </cell>
-          <cell r="C84">
-            <v>45</v>
-          </cell>
-          <cell r="D84">
-            <v>36</v>
-          </cell>
-          <cell r="E84">
-            <v>66</v>
-          </cell>
           <cell r="F84">
             <v>15</v>
           </cell>
@@ -9480,15 +10482,6 @@
           <cell r="B85">
             <v>12</v>
           </cell>
-          <cell r="C85">
-            <v>45</v>
-          </cell>
-          <cell r="D85">
-            <v>36</v>
-          </cell>
-          <cell r="E85">
-            <v>66</v>
-          </cell>
           <cell r="F85">
             <v>16</v>
           </cell>
@@ -9497,15 +10490,6 @@
           <cell r="B86">
             <v>13</v>
           </cell>
-          <cell r="C86">
-            <v>47</v>
-          </cell>
-          <cell r="D86">
-            <v>37</v>
-          </cell>
-          <cell r="E86">
-            <v>71</v>
-          </cell>
           <cell r="F86">
             <v>17</v>
           </cell>
@@ -9514,15 +10498,6 @@
           <cell r="B87">
             <v>14</v>
           </cell>
-          <cell r="C87">
-            <v>49</v>
-          </cell>
-          <cell r="D87">
-            <v>39</v>
-          </cell>
-          <cell r="E87">
-            <v>74</v>
-          </cell>
           <cell r="F87">
             <v>18</v>
           </cell>
@@ -9531,15 +10506,6 @@
           <cell r="B88">
             <v>15</v>
           </cell>
-          <cell r="C88">
-            <v>49</v>
-          </cell>
-          <cell r="D88">
-            <v>39</v>
-          </cell>
-          <cell r="E88">
-            <v>72</v>
-          </cell>
           <cell r="F88">
             <v>19</v>
           </cell>
@@ -9548,15 +10514,6 @@
           <cell r="B89">
             <v>16</v>
           </cell>
-          <cell r="C89">
-            <v>50</v>
-          </cell>
-          <cell r="D89">
-            <v>40</v>
-          </cell>
-          <cell r="E89">
-            <v>77</v>
-          </cell>
           <cell r="F89">
             <v>20</v>
           </cell>
@@ -9565,15 +10522,6 @@
           <cell r="B90">
             <v>17</v>
           </cell>
-          <cell r="C90">
-            <v>53</v>
-          </cell>
-          <cell r="D90">
-            <v>42</v>
-          </cell>
-          <cell r="E90">
-            <v>78</v>
-          </cell>
           <cell r="F90">
             <v>21</v>
           </cell>
@@ -9582,15 +10530,6 @@
           <cell r="B91">
             <v>18</v>
           </cell>
-          <cell r="C91">
-            <v>46</v>
-          </cell>
-          <cell r="D91">
-            <v>37</v>
-          </cell>
-          <cell r="E91">
-            <v>68</v>
-          </cell>
           <cell r="F91">
             <v>22</v>
           </cell>
@@ -9599,15 +10538,6 @@
           <cell r="B92">
             <v>19</v>
           </cell>
-          <cell r="C92">
-            <v>45</v>
-          </cell>
-          <cell r="D92">
-            <v>37</v>
-          </cell>
-          <cell r="E92">
-            <v>64</v>
-          </cell>
           <cell r="F92">
             <v>23</v>
           </cell>
@@ -9616,15 +10546,6 @@
           <cell r="B93">
             <v>20</v>
           </cell>
-          <cell r="C93">
-            <v>43</v>
-          </cell>
-          <cell r="D93">
-            <v>35</v>
-          </cell>
-          <cell r="E93">
-            <v>61</v>
-          </cell>
           <cell r="F93">
             <v>24</v>
           </cell>
@@ -9633,15 +10554,6 @@
           <cell r="B94">
             <v>21</v>
           </cell>
-          <cell r="C94">
-            <v>42</v>
-          </cell>
-          <cell r="D94">
-            <v>34</v>
-          </cell>
-          <cell r="E94">
-            <v>57</v>
-          </cell>
           <cell r="F94">
             <v>25</v>
           </cell>
@@ -9650,15 +10562,6 @@
           <cell r="B95">
             <v>22</v>
           </cell>
-          <cell r="C95">
-            <v>38</v>
-          </cell>
-          <cell r="D95">
-            <v>32</v>
-          </cell>
-          <cell r="E95">
-            <v>51</v>
-          </cell>
           <cell r="F95">
             <v>26</v>
           </cell>
@@ -9667,15 +10570,6 @@
           <cell r="B96">
             <v>23</v>
           </cell>
-          <cell r="C96">
-            <v>35</v>
-          </cell>
-          <cell r="D96">
-            <v>30</v>
-          </cell>
-          <cell r="E96">
-            <v>46</v>
-          </cell>
           <cell r="F96">
             <v>27</v>
           </cell>
@@ -9684,15 +10578,6 @@
           <cell r="B97">
             <v>0</v>
           </cell>
-          <cell r="C97">
-            <v>33</v>
-          </cell>
-          <cell r="D97">
-            <v>29</v>
-          </cell>
-          <cell r="E97">
-            <v>42</v>
-          </cell>
           <cell r="F97">
             <v>5</v>
           </cell>
@@ -9701,15 +10586,6 @@
           <cell r="B98">
             <v>1</v>
           </cell>
-          <cell r="C98">
-            <v>33</v>
-          </cell>
-          <cell r="D98">
-            <v>28</v>
-          </cell>
-          <cell r="E98">
-            <v>42</v>
-          </cell>
           <cell r="F98">
             <v>6</v>
           </cell>
@@ -9718,15 +10594,6 @@
           <cell r="B99">
             <v>2</v>
           </cell>
-          <cell r="C99">
-            <v>32</v>
-          </cell>
-          <cell r="D99">
-            <v>29</v>
-          </cell>
-          <cell r="E99">
-            <v>39</v>
-          </cell>
           <cell r="F99">
             <v>7</v>
           </cell>
@@ -9735,15 +10602,6 @@
           <cell r="B100">
             <v>3</v>
           </cell>
-          <cell r="C100">
-            <v>32</v>
-          </cell>
-          <cell r="D100">
-            <v>28</v>
-          </cell>
-          <cell r="E100">
-            <v>37</v>
-          </cell>
           <cell r="F100">
             <v>8</v>
           </cell>
@@ -9752,15 +10610,6 @@
           <cell r="B101">
             <v>4</v>
           </cell>
-          <cell r="C101">
-            <v>31</v>
-          </cell>
-          <cell r="D101">
-            <v>28</v>
-          </cell>
-          <cell r="E101">
-            <v>36</v>
-          </cell>
           <cell r="F101">
             <v>9</v>
           </cell>
@@ -9769,15 +10618,6 @@
           <cell r="B102">
             <v>5</v>
           </cell>
-          <cell r="C102">
-            <v>33</v>
-          </cell>
-          <cell r="D102">
-            <v>29</v>
-          </cell>
-          <cell r="E102">
-            <v>39</v>
-          </cell>
           <cell r="F102">
             <v>10</v>
           </cell>
@@ -9786,15 +10626,6 @@
           <cell r="B103">
             <v>6</v>
           </cell>
-          <cell r="C103">
-            <v>36</v>
-          </cell>
-          <cell r="D103">
-            <v>30</v>
-          </cell>
-          <cell r="E103">
-            <v>48</v>
-          </cell>
           <cell r="F103">
             <v>11</v>
           </cell>
@@ -9803,15 +10634,6 @@
           <cell r="B104">
             <v>7</v>
           </cell>
-          <cell r="C104">
-            <v>39</v>
-          </cell>
-          <cell r="D104">
-            <v>32</v>
-          </cell>
-          <cell r="E104">
-            <v>56</v>
-          </cell>
           <cell r="F104">
             <v>12</v>
           </cell>
@@ -9820,15 +10642,6 @@
           <cell r="B105">
             <v>8</v>
           </cell>
-          <cell r="C105">
-            <v>40</v>
-          </cell>
-          <cell r="D105">
-            <v>33</v>
-          </cell>
-          <cell r="E105">
-            <v>57</v>
-          </cell>
           <cell r="F105">
             <v>13</v>
           </cell>
@@ -9837,15 +10650,6 @@
           <cell r="B106">
             <v>9</v>
           </cell>
-          <cell r="C106">
-            <v>41</v>
-          </cell>
-          <cell r="D106">
-            <v>33</v>
-          </cell>
-          <cell r="E106">
-            <v>59</v>
-          </cell>
           <cell r="F106">
             <v>14</v>
           </cell>
@@ -9854,15 +10658,6 @@
           <cell r="B107">
             <v>10</v>
           </cell>
-          <cell r="C107">
-            <v>44</v>
-          </cell>
-          <cell r="D107">
-            <v>35</v>
-          </cell>
-          <cell r="E107">
-            <v>64</v>
-          </cell>
           <cell r="F107">
             <v>15</v>
           </cell>
@@ -9871,15 +10666,6 @@
           <cell r="B108">
             <v>11</v>
           </cell>
-          <cell r="C108">
-            <v>46</v>
-          </cell>
-          <cell r="D108">
-            <v>37</v>
-          </cell>
-          <cell r="E108">
-            <v>68</v>
-          </cell>
           <cell r="F108">
             <v>16</v>
           </cell>
@@ -9888,15 +10674,6 @@
           <cell r="B109">
             <v>12</v>
           </cell>
-          <cell r="C109">
-            <v>41</v>
-          </cell>
-          <cell r="D109">
-            <v>33</v>
-          </cell>
-          <cell r="E109">
-            <v>57</v>
-          </cell>
           <cell r="F109">
             <v>17</v>
           </cell>
@@ -9905,15 +10682,6 @@
           <cell r="B110">
             <v>13</v>
           </cell>
-          <cell r="C110">
-            <v>46</v>
-          </cell>
-          <cell r="D110">
-            <v>36</v>
-          </cell>
-          <cell r="E110">
-            <v>71</v>
-          </cell>
           <cell r="F110">
             <v>18</v>
           </cell>
@@ -9922,15 +10690,6 @@
           <cell r="B111">
             <v>14</v>
           </cell>
-          <cell r="C111">
-            <v>50</v>
-          </cell>
-          <cell r="D111">
-            <v>39</v>
-          </cell>
-          <cell r="E111">
-            <v>75</v>
-          </cell>
           <cell r="F111">
             <v>19</v>
           </cell>
@@ -9939,15 +10698,6 @@
           <cell r="B112">
             <v>15</v>
           </cell>
-          <cell r="C112">
-            <v>49</v>
-          </cell>
-          <cell r="D112">
-            <v>39</v>
-          </cell>
-          <cell r="E112">
-            <v>74</v>
-          </cell>
           <cell r="F112">
             <v>20</v>
           </cell>
@@ -9956,15 +10706,6 @@
           <cell r="B113">
             <v>16</v>
           </cell>
-          <cell r="C113">
-            <v>52</v>
-          </cell>
-          <cell r="D113">
-            <v>40</v>
-          </cell>
-          <cell r="E113">
-            <v>82</v>
-          </cell>
           <cell r="F113">
             <v>21</v>
           </cell>
@@ -9973,15 +10714,6 @@
           <cell r="B114">
             <v>17</v>
           </cell>
-          <cell r="C114">
-            <v>57</v>
-          </cell>
-          <cell r="D114">
-            <v>44</v>
-          </cell>
-          <cell r="E114">
-            <v>85</v>
-          </cell>
           <cell r="F114">
             <v>22</v>
           </cell>
@@ -9990,15 +10722,6 @@
           <cell r="B115">
             <v>18</v>
           </cell>
-          <cell r="C115">
-            <v>51</v>
-          </cell>
-          <cell r="D115">
-            <v>40</v>
-          </cell>
-          <cell r="E115">
-            <v>74</v>
-          </cell>
           <cell r="F115">
             <v>23</v>
           </cell>
@@ -10007,15 +10730,6 @@
           <cell r="B116">
             <v>19</v>
           </cell>
-          <cell r="C116">
-            <v>48</v>
-          </cell>
-          <cell r="D116">
-            <v>38</v>
-          </cell>
-          <cell r="E116">
-            <v>69</v>
-          </cell>
           <cell r="F116">
             <v>24</v>
           </cell>
@@ -10024,15 +10738,6 @@
           <cell r="B117">
             <v>20</v>
           </cell>
-          <cell r="C117">
-            <v>45</v>
-          </cell>
-          <cell r="D117">
-            <v>36</v>
-          </cell>
-          <cell r="E117">
-            <v>66</v>
-          </cell>
           <cell r="F117">
             <v>25</v>
           </cell>
@@ -10041,15 +10746,6 @@
           <cell r="B118">
             <v>21</v>
           </cell>
-          <cell r="C118">
-            <v>44</v>
-          </cell>
-          <cell r="D118">
-            <v>36</v>
-          </cell>
-          <cell r="E118">
-            <v>61</v>
-          </cell>
           <cell r="F118">
             <v>26</v>
           </cell>
@@ -10058,15 +10754,6 @@
           <cell r="B119">
             <v>22</v>
           </cell>
-          <cell r="C119">
-            <v>41</v>
-          </cell>
-          <cell r="D119">
-            <v>34</v>
-          </cell>
-          <cell r="E119">
-            <v>57</v>
-          </cell>
           <cell r="F119">
             <v>27</v>
           </cell>
@@ -10075,15 +10762,6 @@
           <cell r="B120">
             <v>23</v>
           </cell>
-          <cell r="C120">
-            <v>37</v>
-          </cell>
-          <cell r="D120">
-            <v>31</v>
-          </cell>
-          <cell r="E120">
-            <v>49</v>
-          </cell>
           <cell r="F120">
             <v>28</v>
           </cell>
@@ -10092,15 +10770,6 @@
           <cell r="B121">
             <v>0</v>
           </cell>
-          <cell r="C121">
-            <v>34</v>
-          </cell>
-          <cell r="D121">
-            <v>30</v>
-          </cell>
-          <cell r="E121">
-            <v>44</v>
-          </cell>
           <cell r="F121">
             <v>6</v>
           </cell>
@@ -10109,15 +10778,6 @@
           <cell r="B122">
             <v>1</v>
           </cell>
-          <cell r="C122">
-            <v>34</v>
-          </cell>
-          <cell r="D122">
-            <v>29</v>
-          </cell>
-          <cell r="E122">
-            <v>42</v>
-          </cell>
           <cell r="F122">
             <v>7</v>
           </cell>
@@ -10126,15 +10786,6 @@
           <cell r="B123">
             <v>2</v>
           </cell>
-          <cell r="C123">
-            <v>32</v>
-          </cell>
-          <cell r="D123">
-            <v>28</v>
-          </cell>
-          <cell r="E123">
-            <v>40</v>
-          </cell>
           <cell r="F123">
             <v>8</v>
           </cell>
@@ -10143,15 +10794,6 @@
           <cell r="B124">
             <v>3</v>
           </cell>
-          <cell r="C124">
-            <v>32</v>
-          </cell>
-          <cell r="D124">
-            <v>28</v>
-          </cell>
-          <cell r="E124">
-            <v>38</v>
-          </cell>
           <cell r="F124">
             <v>9</v>
           </cell>
@@ -10160,15 +10802,6 @@
           <cell r="B125">
             <v>4</v>
           </cell>
-          <cell r="C125">
-            <v>32</v>
-          </cell>
-          <cell r="D125">
-            <v>28</v>
-          </cell>
-          <cell r="E125">
-            <v>40</v>
-          </cell>
           <cell r="F125">
             <v>10</v>
           </cell>
@@ -10177,15 +10810,6 @@
           <cell r="B126">
             <v>5</v>
           </cell>
-          <cell r="C126">
-            <v>33</v>
-          </cell>
-          <cell r="D126">
-            <v>28</v>
-          </cell>
-          <cell r="E126">
-            <v>41</v>
-          </cell>
           <cell r="F126">
             <v>11</v>
           </cell>
@@ -10194,15 +10818,6 @@
           <cell r="B127">
             <v>6</v>
           </cell>
-          <cell r="C127">
-            <v>34</v>
-          </cell>
-          <cell r="D127">
-            <v>29</v>
-          </cell>
-          <cell r="E127">
-            <v>45</v>
-          </cell>
           <cell r="F127">
             <v>12</v>
           </cell>
@@ -10211,15 +10826,6 @@
           <cell r="B128">
             <v>7</v>
           </cell>
-          <cell r="C128">
-            <v>36</v>
-          </cell>
-          <cell r="D128">
-            <v>30</v>
-          </cell>
-          <cell r="E128">
-            <v>49</v>
-          </cell>
           <cell r="F128">
             <v>13</v>
           </cell>
@@ -10228,15 +10834,6 @@
           <cell r="B129">
             <v>8</v>
           </cell>
-          <cell r="C129">
-            <v>38</v>
-          </cell>
-          <cell r="D129">
-            <v>31</v>
-          </cell>
-          <cell r="E129">
-            <v>53</v>
-          </cell>
           <cell r="F129">
             <v>14</v>
           </cell>
@@ -10245,15 +10842,6 @@
           <cell r="B130">
             <v>9</v>
           </cell>
-          <cell r="C130">
-            <v>40</v>
-          </cell>
-          <cell r="D130">
-            <v>33</v>
-          </cell>
-          <cell r="E130">
-            <v>57</v>
-          </cell>
           <cell r="F130">
             <v>15</v>
           </cell>
@@ -10262,15 +10850,6 @@
           <cell r="B131">
             <v>10</v>
           </cell>
-          <cell r="C131">
-            <v>43</v>
-          </cell>
-          <cell r="D131">
-            <v>35</v>
-          </cell>
-          <cell r="E131">
-            <v>63</v>
-          </cell>
           <cell r="F131">
             <v>16</v>
           </cell>
@@ -10279,15 +10858,6 @@
           <cell r="B132">
             <v>11</v>
           </cell>
-          <cell r="C132">
-            <v>44</v>
-          </cell>
-          <cell r="D132">
-            <v>35</v>
-          </cell>
-          <cell r="E132">
-            <v>65</v>
-          </cell>
           <cell r="F132">
             <v>17</v>
           </cell>
@@ -10296,15 +10866,6 @@
           <cell r="B133">
             <v>12</v>
           </cell>
-          <cell r="C133">
-            <v>46</v>
-          </cell>
-          <cell r="D133">
-            <v>36</v>
-          </cell>
-          <cell r="E133">
-            <v>70</v>
-          </cell>
           <cell r="F133">
             <v>18</v>
           </cell>
@@ -10313,15 +10874,6 @@
           <cell r="B134">
             <v>13</v>
           </cell>
-          <cell r="C134">
-            <v>48</v>
-          </cell>
-          <cell r="D134">
-            <v>38</v>
-          </cell>
-          <cell r="E134">
-            <v>73</v>
-          </cell>
           <cell r="F134">
             <v>19</v>
           </cell>
@@ -10330,15 +10882,6 @@
           <cell r="B135">
             <v>14</v>
           </cell>
-          <cell r="C135">
-            <v>52</v>
-          </cell>
-          <cell r="D135">
-            <v>41</v>
-          </cell>
-          <cell r="E135">
-            <v>79</v>
-          </cell>
           <cell r="F135">
             <v>20</v>
           </cell>
@@ -10347,15 +10890,6 @@
           <cell r="B136">
             <v>15</v>
           </cell>
-          <cell r="C136">
-            <v>50</v>
-          </cell>
-          <cell r="D136">
-            <v>40</v>
-          </cell>
-          <cell r="E136">
-            <v>76</v>
-          </cell>
           <cell r="F136">
             <v>21</v>
           </cell>
@@ -10364,15 +10898,6 @@
           <cell r="B137">
             <v>16</v>
           </cell>
-          <cell r="C137">
-            <v>50</v>
-          </cell>
-          <cell r="D137">
-            <v>40</v>
-          </cell>
-          <cell r="E137">
-            <v>76</v>
-          </cell>
           <cell r="F137">
             <v>22</v>
           </cell>
@@ -10381,15 +10906,6 @@
           <cell r="B138">
             <v>17</v>
           </cell>
-          <cell r="C138">
-            <v>51</v>
-          </cell>
-          <cell r="D138">
-            <v>41</v>
-          </cell>
-          <cell r="E138">
-            <v>76</v>
-          </cell>
           <cell r="F138">
             <v>23</v>
           </cell>
@@ -10398,15 +10914,6 @@
           <cell r="B139">
             <v>18</v>
           </cell>
-          <cell r="C139">
-            <v>51</v>
-          </cell>
-          <cell r="D139">
-            <v>41</v>
-          </cell>
-          <cell r="E139">
-            <v>76</v>
-          </cell>
           <cell r="F139">
             <v>24</v>
           </cell>
@@ -10415,15 +10922,6 @@
           <cell r="B140">
             <v>19</v>
           </cell>
-          <cell r="C140">
-            <v>52</v>
-          </cell>
-          <cell r="D140">
-            <v>42</v>
-          </cell>
-          <cell r="E140">
-            <v>76</v>
-          </cell>
           <cell r="F140">
             <v>25</v>
           </cell>
@@ -10432,15 +10930,6 @@
           <cell r="B141">
             <v>20</v>
           </cell>
-          <cell r="C141">
-            <v>53</v>
-          </cell>
-          <cell r="D141">
-            <v>42</v>
-          </cell>
-          <cell r="E141">
-            <v>77</v>
-          </cell>
           <cell r="F141">
             <v>26</v>
           </cell>
@@ -10449,15 +10938,6 @@
           <cell r="B142">
             <v>21</v>
           </cell>
-          <cell r="C142">
-            <v>51</v>
-          </cell>
-          <cell r="D142">
-            <v>41</v>
-          </cell>
-          <cell r="E142">
-            <v>75</v>
-          </cell>
           <cell r="F142">
             <v>27</v>
           </cell>
@@ -10466,15 +10946,6 @@
           <cell r="B143">
             <v>22</v>
           </cell>
-          <cell r="C143">
-            <v>48</v>
-          </cell>
-          <cell r="D143">
-            <v>39</v>
-          </cell>
-          <cell r="E143">
-            <v>66</v>
-          </cell>
           <cell r="F143">
             <v>28</v>
           </cell>
@@ -10483,15 +10954,6 @@
           <cell r="B144">
             <v>23</v>
           </cell>
-          <cell r="C144">
-            <v>41</v>
-          </cell>
-          <cell r="D144">
-            <v>35</v>
-          </cell>
-          <cell r="E144">
-            <v>57</v>
-          </cell>
           <cell r="F144">
             <v>29</v>
           </cell>
@@ -10500,15 +10962,6 @@
           <cell r="B145">
             <v>0</v>
           </cell>
-          <cell r="C145">
-            <v>36</v>
-          </cell>
-          <cell r="D145">
-            <v>31</v>
-          </cell>
-          <cell r="E145">
-            <v>47</v>
-          </cell>
           <cell r="F145">
             <v>7</v>
           </cell>
@@ -10517,15 +10970,6 @@
           <cell r="B146">
             <v>1</v>
           </cell>
-          <cell r="C146">
-            <v>34</v>
-          </cell>
-          <cell r="D146">
-            <v>29</v>
-          </cell>
-          <cell r="E146">
-            <v>43</v>
-          </cell>
           <cell r="F146">
             <v>8</v>
           </cell>
@@ -10534,15 +10978,6 @@
           <cell r="B147">
             <v>2</v>
           </cell>
-          <cell r="C147">
-            <v>33</v>
-          </cell>
-          <cell r="D147">
-            <v>29</v>
-          </cell>
-          <cell r="E147">
-            <v>40</v>
-          </cell>
           <cell r="F147">
             <v>9</v>
           </cell>
@@ -10551,15 +10986,6 @@
           <cell r="B148">
             <v>3</v>
           </cell>
-          <cell r="C148">
-            <v>32</v>
-          </cell>
-          <cell r="D148">
-            <v>29</v>
-          </cell>
-          <cell r="E148">
-            <v>39</v>
-          </cell>
           <cell r="F148">
             <v>10</v>
           </cell>
@@ -10568,15 +10994,6 @@
           <cell r="B149">
             <v>4</v>
           </cell>
-          <cell r="C149">
-            <v>31</v>
-          </cell>
-          <cell r="D149">
-            <v>28</v>
-          </cell>
-          <cell r="E149">
-            <v>38</v>
-          </cell>
           <cell r="F149">
             <v>11</v>
           </cell>
@@ -10585,15 +11002,6 @@
           <cell r="B150">
             <v>5</v>
           </cell>
-          <cell r="C150">
-            <v>33</v>
-          </cell>
-          <cell r="D150">
-            <v>29</v>
-          </cell>
-          <cell r="E150">
-            <v>39</v>
-          </cell>
           <cell r="F150">
             <v>12</v>
           </cell>
@@ -10602,15 +11010,6 @@
           <cell r="B151">
             <v>6</v>
           </cell>
-          <cell r="C151">
-            <v>34</v>
-          </cell>
-          <cell r="D151">
-            <v>28</v>
-          </cell>
-          <cell r="E151">
-            <v>44</v>
-          </cell>
           <cell r="F151">
             <v>13</v>
           </cell>
@@ -10619,15 +11018,6 @@
           <cell r="B152">
             <v>7</v>
           </cell>
-          <cell r="C152">
-            <v>35</v>
-          </cell>
-          <cell r="D152">
-            <v>29</v>
-          </cell>
-          <cell r="E152">
-            <v>46</v>
-          </cell>
           <cell r="F152">
             <v>14</v>
           </cell>
@@ -10636,15 +11026,6 @@
           <cell r="B153">
             <v>8</v>
           </cell>
-          <cell r="C153">
-            <v>38</v>
-          </cell>
-          <cell r="D153">
-            <v>31</v>
-          </cell>
-          <cell r="E153">
-            <v>52</v>
-          </cell>
           <cell r="F153">
             <v>15</v>
           </cell>
@@ -10653,15 +11034,6 @@
           <cell r="B154">
             <v>9</v>
           </cell>
-          <cell r="C154">
-            <v>40</v>
-          </cell>
-          <cell r="D154">
-            <v>33</v>
-          </cell>
-          <cell r="E154">
-            <v>56</v>
-          </cell>
           <cell r="F154">
             <v>16</v>
           </cell>
@@ -10670,15 +11042,6 @@
           <cell r="B155">
             <v>10</v>
           </cell>
-          <cell r="C155">
-            <v>45</v>
-          </cell>
-          <cell r="D155">
-            <v>36</v>
-          </cell>
-          <cell r="E155">
-            <v>65</v>
-          </cell>
           <cell r="F155">
             <v>17</v>
           </cell>
@@ -10687,15 +11050,6 @@
           <cell r="B156">
             <v>11</v>
           </cell>
-          <cell r="C156">
-            <v>47</v>
-          </cell>
-          <cell r="D156">
-            <v>37</v>
-          </cell>
-          <cell r="E156">
-            <v>70</v>
-          </cell>
           <cell r="F156">
             <v>18</v>
           </cell>
@@ -10704,15 +11058,6 @@
           <cell r="B157">
             <v>12</v>
           </cell>
-          <cell r="C157">
-            <v>49</v>
-          </cell>
-          <cell r="D157">
-            <v>38</v>
-          </cell>
-          <cell r="E157">
-            <v>73</v>
-          </cell>
           <cell r="F157">
             <v>19</v>
           </cell>
@@ -10721,15 +11066,6 @@
           <cell r="B158">
             <v>13</v>
           </cell>
-          <cell r="C158">
-            <v>51</v>
-          </cell>
-          <cell r="D158">
-            <v>40</v>
-          </cell>
-          <cell r="E158">
-            <v>76</v>
-          </cell>
           <cell r="F158">
             <v>20</v>
           </cell>
@@ -10738,15 +11074,6 @@
           <cell r="B159">
             <v>14</v>
           </cell>
-          <cell r="C159">
-            <v>51</v>
-          </cell>
-          <cell r="D159">
-            <v>41</v>
-          </cell>
-          <cell r="E159">
-            <v>78</v>
-          </cell>
           <cell r="F159">
             <v>21</v>
           </cell>
@@ -10755,15 +11082,6 @@
           <cell r="B160">
             <v>15</v>
           </cell>
-          <cell r="C160">
-            <v>51</v>
-          </cell>
-          <cell r="D160">
-            <v>41</v>
-          </cell>
-          <cell r="E160">
-            <v>77</v>
-          </cell>
           <cell r="F160">
             <v>22</v>
           </cell>
@@ -10772,15 +11090,6 @@
           <cell r="B161">
             <v>16</v>
           </cell>
-          <cell r="C161">
-            <v>50</v>
-          </cell>
-          <cell r="D161">
-            <v>40</v>
-          </cell>
-          <cell r="E161">
-            <v>74</v>
-          </cell>
           <cell r="F161">
             <v>23</v>
           </cell>
@@ -10789,15 +11098,6 @@
           <cell r="B162">
             <v>17</v>
           </cell>
-          <cell r="C162">
-            <v>50</v>
-          </cell>
-          <cell r="D162">
-            <v>41</v>
-          </cell>
-          <cell r="E162">
-            <v>73</v>
-          </cell>
           <cell r="F162">
             <v>24</v>
           </cell>
@@ -10806,15 +11106,6 @@
           <cell r="B163">
             <v>18</v>
           </cell>
-          <cell r="C163">
-            <v>49</v>
-          </cell>
-          <cell r="D163">
-            <v>40</v>
-          </cell>
-          <cell r="E163">
-            <v>71</v>
-          </cell>
           <cell r="F163">
             <v>25</v>
           </cell>
@@ -10823,15 +11114,6 @@
           <cell r="B164">
             <v>19</v>
           </cell>
-          <cell r="C164">
-            <v>48</v>
-          </cell>
-          <cell r="D164">
-            <v>39</v>
-          </cell>
-          <cell r="E164">
-            <v>68</v>
-          </cell>
           <cell r="F164">
             <v>26</v>
           </cell>
@@ -10840,15 +11122,6 @@
           <cell r="B165">
             <v>20</v>
           </cell>
-          <cell r="C165">
-            <v>46</v>
-          </cell>
-          <cell r="D165">
-            <v>37</v>
-          </cell>
-          <cell r="E165">
-            <v>66</v>
-          </cell>
           <cell r="F165">
             <v>27</v>
           </cell>
@@ -10857,15 +11130,6 @@
           <cell r="B166">
             <v>21</v>
           </cell>
-          <cell r="C166">
-            <v>43</v>
-          </cell>
-          <cell r="D166">
-            <v>36</v>
-          </cell>
-          <cell r="E166">
-            <v>60</v>
-          </cell>
           <cell r="F166">
             <v>28</v>
           </cell>
@@ -10874,15 +11138,6 @@
           <cell r="B167">
             <v>22</v>
           </cell>
-          <cell r="C167">
-            <v>39</v>
-          </cell>
-          <cell r="D167">
-            <v>32</v>
-          </cell>
-          <cell r="E167">
-            <v>52</v>
-          </cell>
           <cell r="F167">
             <v>29</v>
           </cell>
@@ -10890,15 +11145,6 @@
         <row r="168">
           <cell r="B168">
             <v>23</v>
-          </cell>
-          <cell r="C168">
-            <v>35</v>
-          </cell>
-          <cell r="D168">
-            <v>30</v>
-          </cell>
-          <cell r="E168">
-            <v>46</v>
           </cell>
           <cell r="F168">
             <v>30</v>
@@ -11165,23 +11411,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11202,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11223,7 +11469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11244,7 +11490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11265,7 +11511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11286,7 +11532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11307,7 +11553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11328,7 +11574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11349,7 +11595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11370,7 +11616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11391,7 +11637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11412,7 +11658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11433,7 +11679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11454,7 +11700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11475,7 +11721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11496,7 +11742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11517,7 +11763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11538,7 +11784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -11559,7 +11805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11580,7 +11826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11601,7 +11847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -11622,7 +11868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11643,7 +11889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11664,7 +11910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11685,7 +11931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -11706,7 +11952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -11727,7 +11973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -11748,7 +11994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -11769,7 +12015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11790,7 +12036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -11811,7 +12057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -11832,7 +12078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -11853,7 +12099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -11874,7 +12120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -11895,7 +12141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -11916,7 +12162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -11937,7 +12183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -11958,7 +12204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -11979,7 +12225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -12000,7 +12246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -12021,7 +12267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -12042,7 +12288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -12063,7 +12309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -12084,7 +12330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -12105,7 +12351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -12126,7 +12372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -12147,7 +12393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -12168,7 +12414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -12189,7 +12435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -12210,7 +12456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -12231,7 +12477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -12252,7 +12498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -12273,7 +12519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -12294,7 +12540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -12315,7 +12561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -12336,7 +12582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -12357,7 +12603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -12378,7 +12624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -12399,7 +12645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -12420,7 +12666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -12441,7 +12687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -12462,7 +12708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -12483,7 +12729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -12504,7 +12750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -12525,7 +12771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -12546,7 +12792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -12567,7 +12813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -12588,7 +12834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -12609,7 +12855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -12630,7 +12876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -12651,7 +12897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -12672,7 +12918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -12693,7 +12939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -12714,7 +12960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -12735,7 +12981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -12756,7 +13002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -12777,7 +13023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -12798,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -12819,7 +13065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -12840,7 +13086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -12861,7 +13107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -12882,7 +13128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -12903,7 +13149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -12924,7 +13170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -12945,7 +13191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -12966,7 +13212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -12987,7 +13233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -13008,7 +13254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -13029,7 +13275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -13050,7 +13296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -13071,7 +13317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -13092,7 +13338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -13113,7 +13359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -13134,7 +13380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -13155,7 +13401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -13176,7 +13422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -13197,7 +13443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -13218,7 +13464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -13239,7 +13485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -13260,7 +13506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -13281,7 +13527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -13302,7 +13548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -13323,7 +13569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -13344,7 +13590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -13365,7 +13611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -13386,7 +13632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -13407,7 +13653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -13428,7 +13674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -13449,7 +13695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -13470,7 +13716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -13491,7 +13737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -13512,7 +13758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -13533,7 +13779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -13554,7 +13800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -13575,7 +13821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -13596,7 +13842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -13617,7 +13863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -13638,7 +13884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -13659,7 +13905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -13680,7 +13926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -13701,7 +13947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -13722,7 +13968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -13743,7 +13989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -13764,7 +14010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -13785,7 +14031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -13806,7 +14052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -13827,7 +14073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -13848,7 +14094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -13869,7 +14115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -13890,7 +14136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -13911,7 +14157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -13932,7 +14178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -13953,7 +14199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -13974,7 +14220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -13995,7 +14241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -14016,7 +14262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -14037,7 +14283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -14058,7 +14304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -14079,7 +14325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -14100,7 +14346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -14121,7 +14367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -14142,7 +14388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -14163,7 +14409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -14184,7 +14430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -14205,7 +14451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -14226,7 +14472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7</v>
       </c>
@@ -14247,7 +14493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -14268,7 +14514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -14289,7 +14535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -14310,7 +14556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7</v>
       </c>
@@ -14331,7 +14577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
@@ -14352,7 +14598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -14373,7 +14619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -14394,7 +14640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7</v>
       </c>
@@ -14415,7 +14661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -14436,7 +14682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -14457,7 +14703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -14478,7 +14724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -14499,7 +14745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -14520,7 +14766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -14541,7 +14787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -14562,7 +14808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -14583,7 +14829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -14604,7 +14850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -14625,7 +14871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -14646,7 +14892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -14667,7 +14913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -14688,7 +14934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
